--- a/data_group/levene_test_evapo_results.xlsx
+++ b/data_group/levene_test_evapo_results.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.03298393776283171</v>
+        <v>0.02728089460286545</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.07126421668661413</v>
+        <v>0.02549081537516049</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.02816682602654554</v>
+        <v>0.01399294655553326</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.03327258315031983</v>
+        <v>0.02127215763018593</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.05767864442067219</v>
+        <v>0.04761439219366604</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.6804298167978239</v>
+        <v>0.7491101547998733</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.892497822854615</v>
+        <v>0.8551393938690202</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.9322642791108029</v>
+        <v>0.8339917457242919</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.6834954920317278</v>
+        <v>0.5789158187167419</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.4092610076999882</v>
+        <v>0.4104903043480884</v>
       </c>
     </row>
     <row r="17">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.5882985922252861</v>
+        <v>0.6116719586350055</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.7455862876240591</v>
+        <v>0.5158669280645678</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.5604548370717106</v>
+        <v>0.3220763003688719</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.3889714997209821</v>
+        <v>0.2744888667567265</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.3395304215355283</v>
+        <v>0.2926078576231614</v>
       </c>
     </row>
     <row r="27">
